--- a/evaluation/results/retrieval/retrieval_filtering_metrics.xlsx
+++ b/evaluation/results/retrieval/retrieval_filtering_metrics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Retrieval_Filtering_Metrics" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Retrieval_Evaluation_per_Questi" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,12 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="36">
   <si>
     <t>Strategy</t>
   </si>
   <si>
-    <t>Precision@K</t>
+    <t>Question #</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>#Relevant</t>
+  </si>
+  <si>
+    <t>Relevant Positions</t>
+  </si>
+  <si>
+    <t>Precision@k</t>
   </si>
   <si>
     <t>MRR</t>
@@ -25,25 +37,88 @@
     <t>MAP</t>
   </si>
   <si>
-    <t>No Filter</t>
-  </si>
-  <si>
-    <t>0.925</t>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>nofilter</t>
+  </si>
+  <si>
+    <t>[1, 2]</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>Cosine (0.75)</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>LLM Filter</t>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>What is the Essence standard by SEMAT?</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>What are the elements of the Essence language?</t>
+  </si>
+  <si>
+    <t>What is the Essence standard used for?</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>What are the Alphas of the Essence Kernel?</t>
+  </si>
+  <si>
+    <t>[1, 3]</t>
+  </si>
+  <si>
+    <t>What are the Kernel Competencies?</t>
+  </si>
+  <si>
+    <t>[1, 4]</t>
+  </si>
+  <si>
+    <t>What are the states of the Work alpha?</t>
+  </si>
+  <si>
+    <t>[2, 4]</t>
+  </si>
+  <si>
+    <t>What are the Activity Spaces in the Customer Area of Concern?</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>What are the checklist items of the User Story "Identified" Alpha State card?</t>
+  </si>
+  <si>
+    <t>What is Mad Sad Glad?</t>
+  </si>
+  <si>
+    <t>[2, 3]</t>
+  </si>
+  <si>
+    <t>What are the steps of Progress Poker?</t>
+  </si>
+  <si>
+    <t>cosine075</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>llm</t>
   </si>
 </sst>
 </file>
@@ -313,47 +388,890 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
